--- a/ZZ_project features checklist.xlsx
+++ b/ZZ_project features checklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{B96D5725-443F-4501-A726-D0FF87981D2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{45317CAC-20A9-486F-84DD-51B8D98ACAD6}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="13_ncr:1_{B96D5725-443F-4501-A726-D0FF87981D2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A710B44D-ABE6-4304-8C86-E203C3E95A7D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
   <si>
     <t>Feature</t>
   </si>
@@ -295,23 +295,26 @@
     <t>Link in Zwischenablage</t>
   </si>
   <si>
-    <t>Todo</t>
-  </si>
-  <si>
-    <t>Evtl machbar?</t>
-  </si>
-  <si>
     <t>Provide Webseite on the internet</t>
   </si>
   <si>
     <t>Help page</t>
+  </si>
+  <si>
+    <t>Provide Server on the internet</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Tutorial als PDF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +359,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -503,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -553,6 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -598,8 +609,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8335960" y="658810"/>
-          <a:ext cx="3908426" cy="1754190"/>
+          <a:off x="7793035" y="668335"/>
+          <a:ext cx="3622676" cy="2014540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -939,14 +950,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.7109375" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="6" max="7" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -984,10 +996,18 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="15">
-        <v>1</v>
+      <c r="C5" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D5" s="15"/>
+      <c r="F5" s="23">
+        <f>IF(C5="X",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="23">
+        <f>IF(D5="X",1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -996,10 +1016,18 @@
       <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="15">
-        <v>1</v>
+      <c r="C6" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D6" s="15"/>
+      <c r="F6" s="23">
+        <f t="shared" ref="F6:G69" si="0">IF(C6="X",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -1008,10 +1036,18 @@
       <c r="B7" s="13">
         <v>1</v>
       </c>
-      <c r="C7" s="15">
-        <v>1</v>
+      <c r="C7" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D7" s="15"/>
+      <c r="F7" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1020,10 +1056,18 @@
       <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="C8" s="15">
-        <v>1</v>
+      <c r="C8" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D8" s="15"/>
+      <c r="F8" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1032,10 +1076,16 @@
       <c r="B9" s="13">
         <v>2</v>
       </c>
-      <c r="C9" s="15">
-        <v>0</v>
-      </c>
+      <c r="C9" s="15"/>
       <c r="D9" s="15"/>
+      <c r="F9" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -1044,10 +1094,16 @@
       <c r="B10" s="13">
         <v>1</v>
       </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="15"/>
+      <c r="F10" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -1056,13 +1112,29 @@
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="15">
-        <v>1</v>
+      <c r="C11" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D11" s="15"/>
+      <c r="F11" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
+      <c r="F12" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I12" t="s">
         <v>84</v>
       </c>
@@ -1072,12 +1144,20 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
+      <c r="F13" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I13">
-        <f>SUMPRODUCT(B:B,C:C)</f>
-        <v>86</v>
+        <f>SUMPRODUCT(B:B,F:F)</f>
+        <v>92</v>
       </c>
       <c r="K13">
-        <f>SUMPRODUCT(B:B,D:D)+I13</f>
+        <f>SUMPRODUCT(B:B,G:G)+I13</f>
         <v>101</v>
       </c>
     </row>
@@ -1085,16 +1165,46 @@
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="F14" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="F15" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>89.5</v>
+      </c>
+      <c r="K15">
+        <v>98.5</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,206 +1220,378 @@
       <c r="E17" s="16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="13">
         <v>1</v>
       </c>
-      <c r="C18" s="15">
-        <v>1</v>
+      <c r="C18" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
       </c>
-      <c r="C19" s="15">
-        <v>1</v>
+      <c r="C19" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="8">
         <v>2</v>
       </c>
-      <c r="C21" s="15">
-        <v>1</v>
+      <c r="C21" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="8"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="8">
         <v>2</v>
       </c>
-      <c r="C23" s="15">
-        <v>1</v>
+      <c r="C23" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="13">
         <v>2</v>
       </c>
-      <c r="C25" s="15">
-        <v>1</v>
+      <c r="C25" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:5" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="8">
         <v>3</v>
       </c>
-      <c r="C26" s="15">
-        <v>0</v>
-      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="8"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="13">
         <v>4</v>
       </c>
-      <c r="C29" s="15">
-        <v>0</v>
-      </c>
+      <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="8">
         <v>1</v>
       </c>
-      <c r="C30" s="15">
-        <v>1</v>
+      <c r="C30" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="8"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="8">
         <v>2</v>
       </c>
-      <c r="C32" s="15">
-        <v>1</v>
+      <c r="C32" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-    </row>
-    <row r="34" spans="1:5" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="13">
         <v>3</v>
       </c>
-      <c r="C34" s="15">
-        <v>1</v>
+      <c r="C34" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="8">
         <v>1</v>
       </c>
-      <c r="C35" s="15">
-        <v>1</v>
+      <c r="C35" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B37" s="8">
         <v>1</v>
       </c>
-      <c r="C37" s="15">
-        <v>1</v>
+      <c r="C37" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="8"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>23</v>
       </c>
@@ -1318,90 +1600,194 @@
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="15">
-        <v>1</v>
+      <c r="C41" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="15">
-        <v>1</v>
+      <c r="C43" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="8"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="15">
-        <v>1</v>
-      </c>
-      <c r="D45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="E45" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F46" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F47" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F48" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F49" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -1417,44 +1803,84 @@
       <c r="E52" s="16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="8">
         <v>1</v>
       </c>
-      <c r="C53" s="15">
-        <v>1</v>
+      <c r="C53" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D53" s="15"/>
-    </row>
-    <row r="54" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G53" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-    </row>
-    <row r="55" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B55" s="8">
         <v>2</v>
       </c>
-      <c r="C55" s="15">
-        <v>1</v>
+      <c r="C55" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D55" s="15"/>
-    </row>
-    <row r="56" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G55" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="8"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
-    </row>
-    <row r="57" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>31</v>
       </c>
@@ -1462,29 +1888,53 @@
         <v>3</v>
       </c>
       <c r="C57" s="15"/>
-      <c r="D57" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B58" s="8">
         <v>1</v>
       </c>
-      <c r="C58" s="15">
-        <v>1</v>
+      <c r="C58" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D58" s="15"/>
-    </row>
-    <row r="59" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G58" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
-    </row>
-    <row r="60" spans="1:5" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>33</v>
       </c>
@@ -1492,30 +1942,78 @@
         <v>2</v>
       </c>
       <c r="C60" s="15"/>
-      <c r="D60" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D60" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F61" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F62" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F63" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
-    </row>
-    <row r="66" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,165 +2029,333 @@
       <c r="E66" s="16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B67" s="8">
         <v>1</v>
       </c>
-      <c r="C67" s="15">
-        <v>1</v>
+      <c r="C67" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D67" s="15"/>
-    </row>
-    <row r="68" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G67" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
-    </row>
-    <row r="69" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B69" s="8">
         <v>1</v>
       </c>
-      <c r="C69" s="15">
-        <v>1</v>
+      <c r="C69" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D69" s="15"/>
-    </row>
-    <row r="70" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G69" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="8"/>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
-    </row>
-    <row r="71" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="23">
+        <f t="shared" ref="F70:G133" si="1">IF(C70="X",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B71" s="13">
         <v>3</v>
       </c>
-      <c r="C71" s="15">
-        <v>1</v>
+      <c r="C71" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D71" s="15"/>
-    </row>
-    <row r="72" spans="1:5" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G71" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B72" s="8">
         <v>1</v>
       </c>
-      <c r="C72" s="15">
-        <v>1</v>
+      <c r="C72" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D72" s="15"/>
-    </row>
-    <row r="73" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G72" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
-    </row>
-    <row r="74" spans="1:5" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B74" s="8">
         <v>2</v>
       </c>
-      <c r="C74" s="15">
-        <v>1</v>
+      <c r="C74" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D74" s="15"/>
-    </row>
-    <row r="75" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G74" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="B75" s="8"/>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
-    </row>
-    <row r="76" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B76" s="8">
         <v>1</v>
       </c>
-      <c r="C76" s="15">
-        <v>1</v>
+      <c r="C76" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D76" s="15"/>
-    </row>
-    <row r="77" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G76" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
       <c r="B77" s="8"/>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
-    </row>
-    <row r="78" spans="1:5" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B78" s="8">
         <v>2</v>
       </c>
-      <c r="C78" s="15">
-        <v>1</v>
+      <c r="C78" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D78" s="15"/>
-    </row>
-    <row r="79" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F78" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G78" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12"/>
       <c r="B79" s="8"/>
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
-    </row>
-    <row r="80" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
-    </row>
-    <row r="81" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B81" s="13">
         <v>2</v>
       </c>
-      <c r="C81" s="15">
-        <v>1</v>
+      <c r="C81" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D81" s="15"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F81" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G81" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F82" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F83" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F84" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
-    </row>
-    <row r="87" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -1705,78 +2371,163 @@
       <c r="E87" s="16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B88" s="8">
         <v>2</v>
       </c>
-      <c r="C88" s="15">
-        <v>1</v>
+      <c r="C88" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D88" s="15"/>
-    </row>
-    <row r="89" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G88" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
       <c r="B89" s="8"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
-    </row>
-    <row r="90" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F89" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B90" s="8">
         <v>2</v>
       </c>
-      <c r="C90" s="15">
-        <v>1</v>
+      <c r="C90" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D90" s="15"/>
-    </row>
-    <row r="91" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G90" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
       <c r="B91" s="8"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
-    </row>
-    <row r="92" spans="1:5" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B92" s="13">
         <v>2</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15">
-        <v>1</v>
-      </c>
-      <c r="E92" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C92" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" s="15"/>
+      <c r="F92" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G92" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F93" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F94" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F95" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
-    </row>
-    <row r="98" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -1792,68 +2543,124 @@
       <c r="E98" s="16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B99" s="8">
         <v>2</v>
       </c>
-      <c r="C99" s="15">
-        <v>1</v>
+      <c r="C99" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D99" s="15"/>
-    </row>
-    <row r="100" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G99" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
       <c r="B100" s="8"/>
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
-    </row>
-    <row r="101" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B101" s="13">
         <v>2</v>
       </c>
-      <c r="C101" s="15">
-        <v>1</v>
+      <c r="C101" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D101" s="15"/>
-    </row>
-    <row r="102" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F101" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G101" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B102" s="13">
         <v>3</v>
       </c>
-      <c r="C102" s="15">
-        <v>1</v>
+      <c r="C102" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D102" s="15"/>
-    </row>
-    <row r="103" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G102" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B103" s="8">
         <v>2</v>
       </c>
-      <c r="C103" s="15">
-        <v>1</v>
+      <c r="C103" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D103" s="15"/>
-    </row>
-    <row r="104" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G103" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="8"/>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
-    </row>
-    <row r="105" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>55</v>
       </c>
@@ -1862,31 +2669,71 @@
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
-    </row>
-    <row r="106" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B106" s="13">
         <v>5</v>
       </c>
-      <c r="C106" s="15">
-        <v>1</v>
+      <c r="C106" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D106" s="15"/>
-    </row>
-    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F106" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G106" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
-    </row>
-    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F107" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
-    </row>
-    <row r="109" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F109" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -1902,8 +2749,16 @@
       <c r="E110" s="16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F110" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>58</v>
       </c>
@@ -1912,14 +2767,30 @@
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
-    </row>
-    <row r="112" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F111" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
       <c r="B112" s="8"/>
       <c r="C112" s="14"/>
       <c r="D112" s="14"/>
-    </row>
-    <row r="113" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F112" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>59</v>
       </c>
@@ -1928,32 +2799,64 @@
       </c>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
-    </row>
-    <row r="114" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F113" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
       <c r="B114" s="13"/>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
-    </row>
-    <row r="115" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F114" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B115" s="8">
         <v>2</v>
       </c>
-      <c r="C115" s="15">
-        <v>1</v>
+      <c r="C115" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D115" s="15"/>
-    </row>
-    <row r="116" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F115" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G115" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
       <c r="B116" s="8"/>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
-    </row>
-    <row r="117" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F116" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>61</v>
       </c>
@@ -1962,8 +2865,16 @@
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
-    </row>
-    <row r="118" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F117" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>62</v>
       </c>
@@ -1972,14 +2883,30 @@
       </c>
       <c r="C118" s="15"/>
       <c r="D118" s="15"/>
-    </row>
-    <row r="119" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F118" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9"/>
       <c r="B119" s="8"/>
       <c r="C119" s="14"/>
       <c r="D119" s="14"/>
-    </row>
-    <row r="120" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F119" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>63</v>
       </c>
@@ -1988,14 +2915,30 @@
       </c>
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
-    </row>
-    <row r="121" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F120" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
       <c r="B121" s="8"/>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
-    </row>
-    <row r="122" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F121" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>64</v>
       </c>
@@ -2004,82 +2947,159 @@
       </c>
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
-    </row>
-    <row r="123" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F122" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B123" s="8">
         <v>5</v>
       </c>
-      <c r="C123" s="15">
-        <v>1</v>
+      <c r="C123" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D123" s="15"/>
-    </row>
-    <row r="124" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F123" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G123" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
       <c r="B124" s="8"/>
       <c r="C124" s="14"/>
       <c r="D124" s="14"/>
-    </row>
-    <row r="125" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F124" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B125" s="13">
         <v>10</v>
       </c>
-      <c r="C125" s="15">
-        <v>1</v>
+      <c r="C125" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D125" s="15"/>
-    </row>
-    <row r="126" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F125" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G125" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B126" s="8">
         <v>4</v>
       </c>
-      <c r="C126" s="15">
-        <v>1</v>
+      <c r="C126" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D126" s="15"/>
-    </row>
-    <row r="127" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F126" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G126" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
       <c r="B127" s="8"/>
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
-    </row>
-    <row r="128" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F127" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B128" s="13">
         <v>5</v>
       </c>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15">
-        <v>1</v>
-      </c>
-      <c r="E128" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C128" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D128" s="15"/>
+      <c r="F128" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G128" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F129" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
-    </row>
-    <row r="131" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F130" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F131" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>0</v>
       </c>
@@ -2095,8 +3115,16 @@
       <c r="E132" s="16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F132" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G132" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>70</v>
       </c>
@@ -2104,17 +3132,33 @@
         <v>3</v>
       </c>
       <c r="C133" s="15"/>
-      <c r="D133" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D133" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F133" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
       <c r="B134" s="8"/>
       <c r="C134" s="14"/>
       <c r="D134" s="14"/>
-    </row>
-    <row r="135" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F134" s="23">
+        <f t="shared" ref="F134:G150" si="2">IF(C134="X",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G134" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>71</v>
       </c>
@@ -2123,8 +3167,16 @@
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
-    </row>
-    <row r="136" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F135" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>72</v>
       </c>
@@ -2133,67 +3185,151 @@
       </c>
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
-    </row>
-    <row r="137" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F136" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B137" s="8">
         <v>2</v>
       </c>
-      <c r="C137" s="15">
-        <v>1</v>
+      <c r="C137" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D137" s="15"/>
-    </row>
-    <row r="138" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F137" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G137" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9"/>
       <c r="B138" s="8"/>
       <c r="C138" s="14"/>
       <c r="D138" s="14"/>
-    </row>
-    <row r="139" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F138" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B139" s="8">
         <v>2</v>
       </c>
-      <c r="C139" s="15">
-        <v>1</v>
+      <c r="C139" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D139" s="15"/>
-    </row>
-    <row r="140" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F139" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G139" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9"/>
       <c r="B140" s="8"/>
       <c r="C140" s="14"/>
       <c r="D140" s="14"/>
-    </row>
-    <row r="141" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F140" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G140" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B141" s="13">
         <v>2</v>
       </c>
-      <c r="C141" s="15">
-        <v>1</v>
+      <c r="C141" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D141" s="15"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G141" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F142" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G142" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F143" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
         <v>83</v>
       </c>
       <c r="B145" s="18"/>
-    </row>
-    <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F145" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G145" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="18" t="s">
         <v>81</v>
       </c>
@@ -2207,84 +3343,138 @@
       <c r="E146" s="16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F146" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G146" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>86</v>
       </c>
       <c r="B147" s="19"/>
-      <c r="C147" s="19">
-        <v>1</v>
+      <c r="C147" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="D147" s="21"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G147" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>88</v>
+      </c>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D148" s="21"/>
+      <c r="F148" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G148" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>89</v>
+      </c>
+      <c r="B149" s="19"/>
+      <c r="C149" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D149" s="21"/>
+      <c r="F149" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G149" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>90</v>
       </c>
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="21"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>91</v>
-      </c>
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="21"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
-      <c r="D150" s="21"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D150" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F150" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G150" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>92</v>
+      </c>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
-      <c r="D151" s="21"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D151" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
       <c r="D152" s="21"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
       <c r="D153" s="21"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
       <c r="D154" s="21"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
       <c r="D155" s="21"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
       <c r="D156" s="21"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
       <c r="D157" s="21"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
       <c r="D158" s="21"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
       <c r="D159" s="21"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
       <c r="D160" s="21"/>

--- a/ZZ_project features checklist.xlsx
+++ b/ZZ_project features checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="284" documentId="13_ncr:1_{B96D5725-443F-4501-A726-D0FF87981D2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A710B44D-ABE6-4304-8C86-E203C3E95A7D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="-15420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A57" activeCellId="1" sqref="A60 A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
